--- a/excelsheet/Output.xlsx
+++ b/excelsheet/Output.xlsx
@@ -32,13 +32,13 @@
     <t>Care Health</t>
   </si>
   <si>
-    <t>Travel Secure - Student Travel</t>
+    <t>Student Travel Assure Pro</t>
   </si>
   <si>
-    <t>₹6,261</t>
+    <t>₹4,354</t>
   </si>
   <si>
-    <t>Royal Sundaram</t>
+    <t>Niva Bupa (formerly known as Max Bupa)</t>
   </si>
 </sst>
 </file>
